--- a/Phishing.xlsx
+++ b/Phishing.xlsx
@@ -35,22 +35,22 @@
     <t>Unterhaltung/Medien</t>
   </si>
   <si>
-    <t>Automobilbranche</t>
+    <t>Automobil</t>
   </si>
   <si>
     <t>Lebensmittel/Getränke</t>
   </si>
   <si>
-    <t>Gesundheitswesen</t>
+    <t>Gesundheits- wesen</t>
   </si>
   <si>
     <t>Behörden</t>
   </si>
   <si>
-    <t>Fertigungsindustrie</t>
-  </si>
-  <si>
-    <t>Finanzdienstleister</t>
+    <t>Fertigungs- industrie</t>
+  </si>
+  <si>
+    <t>Finanz- dienstleister</t>
   </si>
   <si>
     <t>Geschäftliche Dienstleistungen</t>
@@ -71,7 +71,7 @@
     <t>Versicherungen</t>
   </si>
   <si>
-    <t>Energie- und Versorgungsunterehmen</t>
+    <t>Energie und Versorgung</t>
   </si>
   <si>
     <t>Bildungswesen</t>
@@ -80,7 +80,7 @@
     <t>Bergbau</t>
   </si>
   <si>
-    <t>Telekommunikation</t>
+    <t>Tele- kommunikation</t>
   </si>
   <si>
     <t>Entwicklung</t>
@@ -89,7 +89,7 @@
     <t>Einkauf</t>
   </si>
   <si>
-    <t>Informationstechnologie</t>
+    <t>Informations- technologie</t>
   </si>
   <si>
     <t>Forschung und Entwicklung</t>
